--- a/template/S1/M1-S1-MAGI.xlsx
+++ b/template/S1/M1-S1-MAGI.xlsx
@@ -1301,7 +1301,7 @@
       </c>
       <c r="AC7" s="17" t="inlineStr">
         <is>
-          <t>86h30</t>
+          <t>88h30</t>
         </is>
       </c>
       <c r="AD7" s="12" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="AC12" s="14" t="inlineStr">
         <is>
-          <t>46h30</t>
+          <t>48h30</t>
         </is>
       </c>
       <c r="AD12" s="15" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="AC16" s="14" t="inlineStr">
         <is>
-          <t>34h00</t>
+          <t>36h00</t>
         </is>
       </c>
       <c r="AD16" s="15" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="AC21" s="17" t="inlineStr">
         <is>
-          <t>64h45</t>
+          <t>66h45</t>
         </is>
       </c>
       <c r="AD21" s="12" t="inlineStr">
